--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/INVENTARIO ALMACEN  SEPTIEMBRE      2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 09  SEPTIEMBRE 2021/INVENTARIO ALMACEN  SEPTIEMBRE      2021.xlsx
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="93">
   <si>
     <t xml:space="preserve">INVENTARIO GENERAL </t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>Sep.,2021</t>
+  </si>
+  <si>
+    <t>CAMARON  100/200</t>
+  </si>
+  <si>
+    <t>CAMARON  41/50</t>
   </si>
 </sst>
 </file>
@@ -961,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1711,12 +1717,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2260,6 +2275,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2299,33 +2350,6 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2401,6 +2425,8 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2755,10 +2781,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="246"/>
+      <c r="A1" s="236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="236"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2768,10 +2794,10 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="248"/>
+      <c r="B2" s="238"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2785,32 +2811,32 @@
     </row>
     <row r="3" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="250"/>
+      <c r="C3" s="240"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="251" t="s">
+      <c r="E3" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="252"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="238" t="s">
+      <c r="J3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="239"/>
-      <c r="L3" s="234" t="s">
+      <c r="K3" s="251"/>
+      <c r="L3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236" t="s">
+      <c r="M3" s="247"/>
+      <c r="N3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="237"/>
+      <c r="O3" s="249"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -2832,7 +2858,7 @@
       <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="244"/>
       <c r="I4" s="11"/>
       <c r="J4" s="16" t="s">
         <v>10</v>
@@ -3105,10 +3131,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="240" t="s">
+      <c r="N11" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="241"/>
+      <c r="O11" s="253"/>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
@@ -3278,10 +3304,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="242" t="s">
+      <c r="N16" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="243"/>
+      <c r="O16" s="255"/>
     </row>
     <row r="17" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
@@ -3358,10 +3384,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="244" t="s">
+      <c r="N18" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="245"/>
+      <c r="O18" s="257"/>
     </row>
     <row r="19" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
@@ -3857,10 +3883,10 @@
     <row r="34" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="70"/>
       <c r="C34" s="72"/>
-      <c r="E34" s="233" t="s">
+      <c r="E34" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="233"/>
+      <c r="F34" s="245"/>
       <c r="G34" s="73">
         <f>SUM(G5:G27)</f>
         <v>68686.460000000006</v>
@@ -3885,11 +3911,6 @@
     <sortCondition ref="A10:A28"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
@@ -3897,6 +3918,11 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3947,10 +3973,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="246"/>
+      <c r="A1" s="236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="236"/>
       <c r="G1" s="156"/>
       <c r="H1" s="157"/>
       <c r="I1" s="157"/>
@@ -3962,10 +3988,10 @@
       <c r="O1" s="161"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="248"/>
+      <c r="B2" s="238"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3979,32 +4005,32 @@
     </row>
     <row r="3" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="250"/>
+      <c r="C3" s="240"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="251" t="s">
+      <c r="E3" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="252"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="238" t="s">
+      <c r="J3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="239"/>
-      <c r="L3" s="234" t="s">
+      <c r="K3" s="251"/>
+      <c r="L3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236" t="s">
+      <c r="M3" s="247"/>
+      <c r="N3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="237"/>
+      <c r="O3" s="249"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -4026,7 +4052,7 @@
       <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="254"/>
+      <c r="H4" s="244"/>
       <c r="I4" s="11"/>
       <c r="J4" s="16" t="s">
         <v>10</v>
@@ -4289,8 +4315,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="255"/>
-      <c r="O11" s="256"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="259"/>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
@@ -4460,8 +4486,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="257"/>
-      <c r="O16" s="258"/>
+      <c r="N16" s="260"/>
+      <c r="O16" s="261"/>
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
@@ -4538,8 +4564,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="259"/>
-      <c r="O18" s="260"/>
+      <c r="N18" s="262"/>
+      <c r="O18" s="263"/>
     </row>
     <row r="19" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
@@ -5015,10 +5041,10 @@
     <row r="34" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="70"/>
       <c r="C34" s="72"/>
-      <c r="E34" s="233" t="s">
+      <c r="E34" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="233"/>
+      <c r="F34" s="245"/>
       <c r="G34" s="73">
         <f>SUM(G5:G27)</f>
         <v>37848.980000000003</v>
@@ -5043,11 +5069,6 @@
     <sortCondition ref="A6:A28"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E34:F34"/>
@@ -5055,6 +5076,11 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5094,10 +5120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -5109,15 +5135,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -5127,32 +5153,32 @@
     </row>
     <row r="3" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -5174,7 +5200,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -5425,8 +5451,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="255"/>
-      <c r="P11" s="256"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="259"/>
     </row>
     <row r="12" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
@@ -5596,8 +5622,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="257"/>
-      <c r="P16" s="258"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="261"/>
     </row>
     <row r="17" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
@@ -5666,8 +5692,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="259"/>
-      <c r="P18" s="260"/>
+      <c r="O18" s="262"/>
+      <c r="P18" s="263"/>
     </row>
     <row r="19" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
@@ -6142,10 +6168,10 @@
     <row r="33" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="70"/>
       <c r="D33" s="72"/>
-      <c r="F33" s="233" t="s">
+      <c r="F33" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="233"/>
+      <c r="G33" s="245"/>
       <c r="H33" s="73">
         <f>SUM(H5:H26)</f>
         <v>36939.64</v>
@@ -6170,6 +6196,11 @@
     <sortCondition ref="B27:B30"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="F2:H2"/>
@@ -6178,11 +6209,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6222,10 +6248,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -6237,15 +6263,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -6255,32 +6281,32 @@
     </row>
     <row r="3" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -6302,7 +6328,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -6561,8 +6587,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="255"/>
-      <c r="P11" s="256"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="259"/>
     </row>
     <row r="12" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
@@ -6732,8 +6758,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="257"/>
-      <c r="P16" s="258"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="261"/>
     </row>
     <row r="17" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
@@ -6794,8 +6820,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="259"/>
-      <c r="P18" s="260"/>
+      <c r="O18" s="262"/>
+      <c r="P18" s="263"/>
     </row>
     <row r="19" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
@@ -7305,10 +7331,10 @@
     <row r="34" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="70"/>
       <c r="D34" s="72"/>
-      <c r="F34" s="233" t="s">
+      <c r="F34" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="233"/>
+      <c r="G34" s="245"/>
       <c r="H34" s="73">
         <f>SUM(H5:H27)</f>
         <v>42297.960000000006</v>
@@ -7333,11 +7359,6 @@
     <sortCondition ref="B6:B31"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -7346,6 +7367,11 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7385,10 +7411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -7400,15 +7426,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -7418,32 +7444,32 @@
     </row>
     <row r="3" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -7465,7 +7491,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -7518,10 +7544,10 @@
         <f>L5-I5</f>
         <v>-1</v>
       </c>
-      <c r="O5" s="272" t="s">
+      <c r="O5" s="275" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="273"/>
+      <c r="P5" s="276"/>
     </row>
     <row r="6" spans="2:16" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -7559,10 +7585,10 @@
         <f t="shared" ref="N6:N9" si="2">L6-I6</f>
         <v>-20</v>
       </c>
-      <c r="O6" s="264" t="s">
+      <c r="O6" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="265"/>
+      <c r="P6" s="268"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
@@ -7639,10 +7665,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O8" s="274" t="s">
+      <c r="O8" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="275"/>
+      <c r="P8" s="278"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="164" t="s">
@@ -7715,10 +7741,10 @@
         <f t="shared" ref="N10" si="4">L10-I10</f>
         <v>-1</v>
       </c>
-      <c r="O10" s="266" t="s">
+      <c r="O10" s="269" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="267"/>
+      <c r="P10" s="270"/>
     </row>
     <row r="11" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
@@ -7834,8 +7860,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="255"/>
-      <c r="P13" s="256"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="259"/>
     </row>
     <row r="14" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
@@ -8005,8 +8031,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="261"/>
     </row>
     <row r="19" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
@@ -8075,8 +8101,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="262"/>
-      <c r="P20" s="263"/>
+      <c r="O20" s="265"/>
+      <c r="P20" s="266"/>
     </row>
     <row r="21" spans="2:16" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
@@ -8118,10 +8144,10 @@
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="O21" s="268" t="s">
+      <c r="O21" s="271" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="269"/>
+      <c r="P21" s="272"/>
     </row>
     <row r="22" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
@@ -8225,10 +8251,10 @@
         <f t="shared" si="5"/>
         <v>-21</v>
       </c>
-      <c r="O24" s="270" t="s">
+      <c r="O24" s="273" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="271"/>
+      <c r="P24" s="274"/>
     </row>
     <row r="25" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
@@ -8511,10 +8537,10 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="O32" s="268" t="s">
+      <c r="O32" s="271" t="s">
         <v>74</v>
       </c>
-      <c r="P32" s="269"/>
+      <c r="P32" s="272"/>
     </row>
     <row r="33" spans="2:16" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="165" t="s">
@@ -8610,10 +8636,10 @@
     <row r="36" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="70"/>
       <c r="D36" s="72"/>
-      <c r="F36" s="233" t="s">
+      <c r="F36" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="233"/>
+      <c r="G36" s="245"/>
       <c r="H36" s="73">
         <f>SUM(H5:H29)</f>
         <v>55685.099999999991</v>
@@ -8638,6 +8664,11 @@
     <sortCondition ref="B5:B34"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -8653,11 +8684,6 @@
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8697,10 +8723,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -8712,15 +8738,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -8730,32 +8756,32 @@
     </row>
     <row r="3" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -8777,7 +8803,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -8826,8 +8852,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="273"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="276"/>
     </row>
     <row r="6" spans="2:24" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -8865,8 +8891,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="264"/>
-      <c r="P6" s="265"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="268"/>
       <c r="S6" s="224"/>
       <c r="T6" s="225"/>
       <c r="U6" s="226"/>
@@ -8953,8 +8979,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="276"/>
-      <c r="P8" s="277"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="280"/>
     </row>
     <row r="9" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="164" t="s">
@@ -9015,10 +9041,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="266" t="s">
+      <c r="O10" s="269" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="267"/>
+      <c r="P10" s="270"/>
     </row>
     <row r="11" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
@@ -9138,8 +9164,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="255"/>
-      <c r="P13" s="256"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="259"/>
     </row>
     <row r="14" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
@@ -9309,8 +9335,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="261"/>
     </row>
     <row r="19" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
@@ -9379,8 +9405,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="262"/>
-      <c r="P20" s="263"/>
+      <c r="O20" s="265"/>
+      <c r="P20" s="266"/>
     </row>
     <row r="21" spans="2:16" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
@@ -9422,10 +9448,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O21" s="268" t="s">
+      <c r="O21" s="271" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="269"/>
+      <c r="P21" s="272"/>
     </row>
     <row r="22" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
@@ -9533,8 +9559,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="270"/>
-      <c r="P24" s="271"/>
+      <c r="O24" s="273"/>
+      <c r="P24" s="274"/>
     </row>
     <row r="25" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
@@ -9805,10 +9831,10 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="O32" s="268" t="s">
+      <c r="O32" s="271" t="s">
         <v>78</v>
       </c>
-      <c r="P32" s="269"/>
+      <c r="P32" s="272"/>
     </row>
     <row r="33" spans="2:16" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="165" t="s">
@@ -9904,10 +9930,10 @@
     <row r="36" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="70"/>
       <c r="D36" s="72"/>
-      <c r="F36" s="233" t="s">
+      <c r="F36" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="233"/>
+      <c r="G36" s="245"/>
       <c r="H36" s="73">
         <f>SUM(H5:H29)</f>
         <v>56083.79800000001</v>
@@ -9929,14 +9955,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -9949,6 +9967,14 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9988,10 +10014,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -10003,15 +10029,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="237" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -10021,32 +10047,32 @@
     </row>
     <row r="3" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10068,7 +10094,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -10117,8 +10143,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="273"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="276"/>
     </row>
     <row r="6" spans="2:24" ht="39" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -10148,8 +10174,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="264"/>
-      <c r="P6" s="265"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="268"/>
       <c r="S6" s="224"/>
       <c r="T6" s="225"/>
       <c r="U6" s="226"/>
@@ -10224,8 +10250,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="276"/>
-      <c r="P8" s="277"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="280"/>
     </row>
     <row r="9" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="164" t="s">
@@ -10290,10 +10316,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="266" t="s">
+      <c r="O10" s="269" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="267"/>
+      <c r="P10" s="270"/>
     </row>
     <row r="11" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
@@ -10409,8 +10435,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="255"/>
-      <c r="P13" s="256"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="259"/>
     </row>
     <row r="14" spans="2:24" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
@@ -10580,8 +10606,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="261"/>
     </row>
     <row r="19" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
@@ -10650,8 +10676,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="262"/>
-      <c r="P20" s="263"/>
+      <c r="O20" s="265"/>
+      <c r="P20" s="266"/>
     </row>
     <row r="21" spans="2:16" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
@@ -10689,10 +10715,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O21" s="268" t="s">
+      <c r="O21" s="271" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="269"/>
+      <c r="P21" s="272"/>
     </row>
     <row r="22" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
@@ -10796,8 +10822,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="270"/>
-      <c r="P24" s="271"/>
+      <c r="O24" s="273"/>
+      <c r="P24" s="274"/>
     </row>
     <row r="25" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
@@ -11060,10 +11086,10 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="O32" s="268" t="s">
+      <c r="O32" s="271" t="s">
         <v>78</v>
       </c>
-      <c r="P32" s="269"/>
+      <c r="P32" s="272"/>
     </row>
     <row r="33" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="165" t="s">
@@ -11159,10 +11185,10 @@
     <row r="36" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="70"/>
       <c r="D36" s="72"/>
-      <c r="F36" s="233" t="s">
+      <c r="F36" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="233"/>
+      <c r="G36" s="245"/>
       <c r="H36" s="73">
         <f>SUM(H5:H29)</f>
         <v>23272.91</v>
@@ -11184,14 +11210,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -11204,6 +11222,14 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.43307086614173229" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11243,10 +11269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -11258,15 +11284,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247">
+      <c r="B2" s="237">
         <v>44444</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -11276,32 +11302,32 @@
     </row>
     <row r="3" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -11323,7 +11349,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -11372,8 +11398,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="273"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="276"/>
     </row>
     <row r="6" spans="2:24" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -11411,8 +11437,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="264"/>
-      <c r="P6" s="265"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="268"/>
       <c r="S6" s="224"/>
       <c r="T6" s="225"/>
       <c r="U6" s="226"/>
@@ -11487,8 +11513,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="276"/>
-      <c r="P8" s="277"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="280"/>
     </row>
     <row r="9" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="164" t="s">
@@ -11549,10 +11575,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="266" t="s">
+      <c r="O10" s="269" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="267"/>
+      <c r="P10" s="270"/>
     </row>
     <row r="11" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
@@ -11668,8 +11694,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="255"/>
-      <c r="P13" s="256"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="259"/>
     </row>
     <row r="14" spans="2:24" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
@@ -11847,8 +11873,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="261"/>
     </row>
     <row r="19" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
@@ -11917,8 +11943,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="262"/>
-      <c r="P20" s="263"/>
+      <c r="O20" s="265"/>
+      <c r="P20" s="266"/>
     </row>
     <row r="21" spans="2:16" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
@@ -11956,10 +11982,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O21" s="278" t="s">
+      <c r="O21" s="281" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="279"/>
+      <c r="P21" s="282"/>
     </row>
     <row r="22" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
@@ -12063,8 +12089,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="270"/>
-      <c r="P24" s="271"/>
+      <c r="O24" s="273"/>
+      <c r="P24" s="274"/>
     </row>
     <row r="25" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
@@ -12424,10 +12450,10 @@
     <row r="36" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="70"/>
       <c r="D36" s="72"/>
-      <c r="F36" s="233" t="s">
+      <c r="F36" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="233"/>
+      <c r="G36" s="245"/>
       <c r="H36" s="73">
         <f>SUM(H5:H29)</f>
         <v>32951.5</v>
@@ -12452,6 +12478,13 @@
     <sortCondition ref="B15:B18"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -12464,13 +12497,6 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.43307086614173229" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12483,10 +12509,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B1:X36"/>
+  <dimension ref="B1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12510,10 +12536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="156"/>
       <c r="I1" s="157"/>
       <c r="J1" s="157"/>
@@ -12525,15 +12551,15 @@
       <c r="P1" s="161"/>
     </row>
     <row r="2" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="247">
+      <c r="B2" s="237">
         <v>44472</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="F2" s="261" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
@@ -12543,32 +12569,32 @@
     </row>
     <row r="3" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="243" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="234" t="s">
+      <c r="L3" s="251"/>
+      <c r="M3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="236" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="237"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -12590,7 +12616,7 @@
       <c r="H4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="11"/>
       <c r="K4" s="16" t="s">
         <v>10</v>
@@ -12611,7 +12637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="30" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>64</v>
       </c>
@@ -12621,7 +12647,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="25"/>
       <c r="H5" s="174">
-        <f t="shared" ref="H5:I30" si="0">F5+C5</f>
+        <f t="shared" ref="H5:I31" si="0">F5+C5</f>
         <v>0</v>
       </c>
       <c r="I5" s="27">
@@ -12639,8 +12665,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="273"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="276"/>
     </row>
     <row r="6" spans="2:24" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -12649,29 +12675,37 @@
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="22">
+        <v>128.88</v>
+      </c>
+      <c r="G6" s="25">
+        <v>10</v>
+      </c>
       <c r="H6" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128.88</v>
       </c>
       <c r="I6" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="28"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="208"/>
+      <c r="K6" s="207">
+        <v>128.88</v>
+      </c>
+      <c r="L6" s="208">
+        <v>10</v>
+      </c>
       <c r="M6" s="210">
-        <f t="shared" ref="M6:N21" si="1">K6-H6</f>
+        <f t="shared" ref="M6:N22" si="1">K6-H6</f>
         <v>0</v>
       </c>
       <c r="N6" s="211">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="264"/>
-      <c r="P6" s="265"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="268"/>
       <c r="S6" s="224"/>
       <c r="T6" s="225"/>
       <c r="U6" s="226"/>
@@ -12683,25 +12717,33 @@
       <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="22">
+        <v>163.35</v>
+      </c>
+      <c r="D7" s="23">
+        <v>13</v>
+      </c>
       <c r="E7" s="24"/>
       <c r="F7" s="22"/>
       <c r="G7" s="25"/>
       <c r="H7" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163.35</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="208"/>
+      <c r="K7" s="207">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="L7" s="208">
+        <v>13</v>
+      </c>
       <c r="M7" s="126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.9999999999982947E-2</v>
       </c>
       <c r="N7" s="209">
         <f t="shared" si="1"/>
@@ -12738,29 +12780,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="276"/>
-      <c r="P8" s="277"/>
-    </row>
-    <row r="9" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="164" t="s">
-        <v>69</v>
+      <c r="O8" s="279"/>
+      <c r="P8" s="280"/>
+    </row>
+    <row r="9" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="22">
+        <v>30</v>
+      </c>
+      <c r="G9" s="25">
+        <v>3</v>
+      </c>
       <c r="H9" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I9" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="208"/>
+      <c r="K9" s="207">
+        <v>30</v>
+      </c>
+      <c r="L9" s="208">
+        <v>3</v>
+      </c>
       <c r="M9" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12772,26 +12822,34 @@
       <c r="O9" s="131"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="22">
+        <v>40</v>
+      </c>
+      <c r="G10" s="25">
+        <v>4</v>
+      </c>
       <c r="H10" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I10" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="208"/>
+      <c r="K10" s="207">
+        <v>40</v>
+      </c>
+      <c r="L10" s="208">
+        <v>4</v>
+      </c>
       <c r="M10" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12800,107 +12858,133 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="266" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="267"/>
-    </row>
-    <row r="11" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>15</v>
+      <c r="O10" s="269"/>
+      <c r="P10" s="270"/>
+    </row>
+    <row r="11" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="164" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="176">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F11" s="22">
+        <v>9190.06</v>
+      </c>
+      <c r="G11" s="25">
+        <v>389</v>
+      </c>
+      <c r="H11" s="284">
+        <f t="shared" si="0"/>
+        <v>9190.06</v>
       </c>
       <c r="I11" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="213"/>
+      <c r="K11" s="207">
+        <v>9190</v>
+      </c>
+      <c r="L11" s="208">
+        <v>389</v>
+      </c>
       <c r="M11" s="126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.9999999999490683E-2</v>
       </c>
       <c r="N11" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
-    </row>
-    <row r="12" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="234"/>
+      <c r="P11" s="235"/>
+    </row>
+    <row r="12" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2031.37</v>
+      </c>
+      <c r="D12" s="23">
+        <v>76</v>
+      </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
       <c r="H12" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2031.37</v>
       </c>
       <c r="I12" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J12" s="28"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="213"/>
+      <c r="K12" s="212">
+        <v>2031.3</v>
+      </c>
+      <c r="L12" s="213">
+        <v>76</v>
+      </c>
       <c r="M12" s="126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6.9999999999936335E-2</v>
       </c>
       <c r="N12" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
     </row>
     <row r="13" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="22">
+        <v>203.8</v>
+      </c>
+      <c r="G13" s="25">
+        <v>7</v>
+      </c>
       <c r="H13" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>203.8</v>
       </c>
       <c r="I13" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="213"/>
+      <c r="K13" s="212">
+        <v>205.7</v>
+      </c>
+      <c r="L13" s="213">
+        <v>7</v>
+      </c>
       <c r="M13" s="126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.8999999999999773</v>
       </c>
       <c r="N13" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="255"/>
-      <c r="P13" s="256"/>
-    </row>
-    <row r="14" spans="2:24" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
+    </row>
+    <row r="14" spans="2:24" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -12926,12 +13010,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="139"/>
-      <c r="P14" s="140"/>
-    </row>
-    <row r="15" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="258"/>
+      <c r="P14" s="259"/>
+    </row>
+    <row r="15" spans="2:24" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
@@ -12957,29 +13041,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="140"/>
     </row>
     <row r="16" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="C16" s="22">
+        <v>178.91</v>
+      </c>
+      <c r="D16" s="23">
+        <v>8</v>
+      </c>
       <c r="E16" s="24"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
       <c r="H16" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>178.91</v>
       </c>
       <c r="I16" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="213"/>
+      <c r="K16" s="212">
+        <v>178.91</v>
+      </c>
+      <c r="L16" s="213">
+        <v>8</v>
+      </c>
       <c r="M16" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12988,12 +13080,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="143"/>
-      <c r="P16" s="144"/>
-    </row>
-    <row r="17" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="141"/>
+      <c r="P16" s="142"/>
+    </row>
+    <row r="17" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
@@ -13019,43 +13111,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
-    </row>
-    <row r="18" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="163" t="s">
-        <v>50</v>
+      <c r="O17" s="143"/>
+      <c r="P17" s="144"/>
+    </row>
+    <row r="18" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="22">
+        <v>653.76</v>
+      </c>
+      <c r="G18" s="25">
+        <v>144</v>
+      </c>
       <c r="H18" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>653.76</v>
       </c>
       <c r="I18" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="213"/>
+        <v>144</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="212">
+        <v>654</v>
+      </c>
+      <c r="L18" s="213">
+        <v>144</v>
+      </c>
       <c r="M18" s="126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24000000000000909</v>
       </c>
       <c r="N18" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
-    </row>
-    <row r="19" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>21</v>
+      <c r="O18" s="145"/>
+      <c r="P18" s="146"/>
+    </row>
+    <row r="19" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="163" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
@@ -13070,7 +13170,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="212"/>
       <c r="L19" s="213"/>
       <c r="M19" s="126">
@@ -13081,12 +13181,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="147"/>
-      <c r="P19" s="148"/>
-    </row>
-    <row r="20" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="260"/>
+      <c r="P19" s="261"/>
+    </row>
+    <row r="20" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
@@ -13112,12 +13212,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="262"/>
-      <c r="P20" s="263"/>
-    </row>
-    <row r="21" spans="2:16" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="147"/>
+      <c r="P20" s="148"/>
+    </row>
+    <row r="21" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
@@ -13135,84 +13235,104 @@
       <c r="J21" s="28"/>
       <c r="K21" s="212"/>
       <c r="L21" s="213"/>
-      <c r="M21" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="215">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="278" t="s">
+      <c r="M21" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="209">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="265"/>
+      <c r="P21" s="266"/>
+    </row>
+    <row r="22" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="22">
+        <v>10667.52</v>
+      </c>
+      <c r="D22" s="23">
+        <v>392</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="22">
+        <v>37019.199999999997</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1360</v>
+      </c>
+      <c r="H22" s="176">
+        <f t="shared" si="0"/>
+        <v>47686.720000000001</v>
+      </c>
+      <c r="I22" s="171">
+        <f t="shared" si="0"/>
+        <v>1752</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="212">
+        <v>47580.54</v>
+      </c>
+      <c r="L22" s="213">
+        <v>1748</v>
+      </c>
+      <c r="M22" s="201">
+        <f t="shared" si="1"/>
+        <v>-106.18000000000029</v>
+      </c>
+      <c r="N22" s="202">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="O22" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="279"/>
-    </row>
-    <row r="22" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="P22" s="272"/>
+    </row>
+    <row r="23" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="176">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="171">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="217"/>
-      <c r="M22" s="126">
-        <f t="shared" ref="M22:N35" si="2">K22-H22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="209">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="191"/>
-      <c r="P22" s="192"/>
-    </row>
-    <row r="23" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="38">
+        <v>910.15</v>
+      </c>
+      <c r="D23" s="23">
+        <v>43</v>
+      </c>
       <c r="E23" s="24"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25"/>
       <c r="H23" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>910.15</v>
       </c>
       <c r="I23" s="171">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J23" s="28"/>
-      <c r="K23" s="216"/>
-      <c r="L23" s="217"/>
+      <c r="K23" s="216">
+        <v>909.4</v>
+      </c>
+      <c r="L23" s="217">
+        <v>43</v>
+      </c>
       <c r="M23" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="M23:N36" si="2">K23-H23</f>
+        <v>-0.75</v>
       </c>
       <c r="N23" s="209">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="193"/>
-      <c r="P23" s="194"/>
-    </row>
-    <row r="24" spans="2:16" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+    </row>
+    <row r="24" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
@@ -13228,56 +13348,56 @@
         <v>0</v>
       </c>
       <c r="J24" s="28"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="214">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="215">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="270"/>
-      <c r="P24" s="271"/>
-    </row>
-    <row r="25" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="216"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="193"/>
+      <c r="P24" s="194"/>
+    </row>
+    <row r="25" spans="2:16" ht="46.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="177">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="172">
+      <c r="F25" s="22"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="176">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="171">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="218"/>
       <c r="L25" s="213"/>
-      <c r="M25" s="219">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="195"/>
-      <c r="P25" s="196"/>
-    </row>
-    <row r="26" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="215">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="273"/>
+      <c r="P25" s="274"/>
+    </row>
+    <row r="26" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="24"/>
       <c r="F26" s="47"/>
       <c r="G26" s="48"/>
@@ -13300,32 +13420,40 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-    </row>
-    <row r="27" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="163" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="196"/>
+    </row>
+    <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="283">
+        <v>553.95000000000005</v>
+      </c>
+      <c r="D27" s="233">
+        <v>24</v>
+      </c>
       <c r="E27" s="24"/>
       <c r="F27" s="47"/>
       <c r="G27" s="48"/>
       <c r="H27" s="177">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>553.95000000000005</v>
       </c>
       <c r="I27" s="172">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J27" s="28"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="213"/>
+      <c r="K27" s="218">
+        <v>553.9</v>
+      </c>
+      <c r="L27" s="213">
+        <v>24</v>
+      </c>
       <c r="M27" s="219">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5.0000000000068212E-2</v>
       </c>
       <c r="N27" s="181">
         <f t="shared" si="2"/>
@@ -13334,12 +13462,12 @@
       <c r="O27" s="95"/>
       <c r="P27" s="96"/>
     </row>
-    <row r="28" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
+    <row r="28" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="24"/>
       <c r="F28" s="47"/>
       <c r="G28" s="48"/>
@@ -13362,23 +13490,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-    </row>
-    <row r="29" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="178">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="173">
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+    </row>
+    <row r="29" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="177">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13393,18 +13521,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-    </row>
-    <row r="30" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="115"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="98"/>
+    </row>
+    <row r="30" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="60"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="178">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13424,107 +13552,123 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
-    </row>
-    <row r="31" spans="2:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="182" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="59"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+    </row>
+    <row r="31" spans="2:16" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="55"/>
       <c r="G31" s="60"/>
       <c r="H31" s="178">
-        <f t="shared" ref="H31:I35" si="3">F31+C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="218"/>
       <c r="L31" s="213"/>
-      <c r="M31" s="220">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="221">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="197"/>
-      <c r="P31" s="198"/>
-    </row>
-    <row r="32" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="162" t="s">
-        <v>52</v>
+      <c r="M31" s="219">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+    </row>
+    <row r="32" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="182" t="s">
+        <v>66</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="59"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="60"/>
+      <c r="F32" s="55">
+        <v>25</v>
+      </c>
+      <c r="G32" s="60">
+        <v>5</v>
+      </c>
       <c r="H32" s="178">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="H32:I36" si="3">F32+C32</f>
+        <v>25</v>
       </c>
       <c r="I32" s="173">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="213"/>
-      <c r="M32" s="229">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="230">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="231"/>
-      <c r="P32" s="232"/>
-    </row>
-    <row r="33" spans="2:16" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="165" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="38"/>
+      <c r="K32" s="218">
+        <v>25</v>
+      </c>
+      <c r="L32" s="213">
+        <v>5</v>
+      </c>
+      <c r="M32" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="221">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="197"/>
+      <c r="P32" s="198"/>
+    </row>
+    <row r="33" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="22"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="55">
+        <v>285</v>
+      </c>
+      <c r="G33" s="60">
+        <v>19</v>
+      </c>
       <c r="H33" s="178">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="I33" s="173">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J33" s="28"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="199"/>
-      <c r="P33" s="200"/>
-    </row>
-    <row r="34" spans="2:16" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="183" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="65"/>
+      <c r="K33" s="218">
+        <v>285</v>
+      </c>
+      <c r="L33" s="213">
+        <v>19</v>
+      </c>
+      <c r="M33" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="215">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="231"/>
+      <c r="P33" s="232"/>
+    </row>
+    <row r="34" spans="2:16" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="38"/>
       <c r="D34" s="23"/>
       <c r="E34" s="115"/>
       <c r="F34" s="55"/>
@@ -13548,17 +13692,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O34" s="99"/>
-      <c r="P34" s="100"/>
-    </row>
-    <row r="35" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
-      <c r="C35" s="22"/>
+      <c r="O34" s="199"/>
+      <c r="P34" s="200"/>
+    </row>
+    <row r="35" spans="2:16" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="65"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="59"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="55"/>
       <c r="G35" s="60"/>
-      <c r="H35" s="176">
+      <c r="H35" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13567,8 +13713,8 @@
         <v>0</v>
       </c>
       <c r="J35" s="28"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="179"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="121"/>
       <c r="M35" s="168">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -13577,49 +13723,69 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O35" s="101"/>
-      <c r="P35" s="102"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="100"/>
     </row>
     <row r="36" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
-      <c r="D36" s="72"/>
-      <c r="F36" s="233" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="176">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="173">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="28"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="179"/>
+      <c r="M36" s="168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+    </row>
+    <row r="37" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="70"/>
+      <c r="D37" s="72"/>
+      <c r="F37" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="233"/>
-      <c r="H36" s="73">
-        <f>SUM(H5:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="74">
-        <f>SUM(I5:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="76">
-        <f>SUM(K5:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="117">
-        <f>SUM(L5:L34)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="78"/>
+      <c r="G37" s="245"/>
+      <c r="H37" s="73">
+        <f>SUM(H5:H30)</f>
+        <v>61770.95</v>
+      </c>
+      <c r="I37" s="74">
+        <f>SUM(I5:I30)</f>
+        <v>2473</v>
+      </c>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76">
+        <f>SUM(K5:K35)</f>
+        <v>61975.930000000008</v>
+      </c>
+      <c r="L37" s="117">
+        <f>SUM(L5:L35)</f>
+        <v>2493</v>
+      </c>
+      <c r="O37" s="78"/>
     </row>
   </sheetData>
+  <sortState ref="B9:G11">
+    <sortCondition ref="B9:B11"/>
+  </sortState>
   <mergeCells count="19">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -13627,6 +13793,18 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.35433070866141736" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
